--- a/VoIP.xlsx
+++ b/VoIP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SERVI\Documents\Documento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BA82C7E-7F76-4852-8B1A-227B30E0D78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9388E0A4-5702-4FB6-A725-608AFFC68C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9FE17267-FE1E-4D27-BF51-A8ED1B525579}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{9FE17267-FE1E-4D27-BF51-A8ED1B525579}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -106,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +115,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -160,10 +166,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -171,8 +178,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -508,7 +517,7 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +557,7 @@
         <f>B3*C3</f>
         <v>1167.6099999999999</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -566,7 +575,7 @@
         <f>B4*C4</f>
         <v>3519.84</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -599,7 +608,7 @@
         <f t="shared" si="0"/>
         <v>1117.56</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -617,7 +626,7 @@
         <f t="shared" si="0"/>
         <v>2732.62</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -635,7 +644,7 @@
         <f t="shared" si="0"/>
         <v>17024</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -653,7 +662,7 @@
         <f t="shared" si="0"/>
         <v>1498</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -671,7 +680,7 @@
         <f t="shared" si="0"/>
         <v>2430</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -689,7 +698,7 @@
         <f t="shared" si="0"/>
         <v>9609</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -703,10 +712,20 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{2DC1D043-AEC4-4A1D-B59B-9499EECB0873}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{71867D89-C7AD-4713-9654-AC0DD2E37751}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{30ADFD2A-CC68-4674-B1FB-BD86D95A7FF9}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{DF78AE38-2845-45B3-A01A-F8D8B1978F22}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{4B190562-D5B0-4A28-8297-858A7FEF46F7}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{E111F5C5-7C08-4F8E-87B2-A3FBFD61D937}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{36239F62-69D3-4967-B654-D4FF5F6373C8}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{89E11C66-FE0C-445E-861F-525970665A77}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="258" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="258" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>